--- a/assets/parcelle-import-exemple.xlsx
+++ b/assets/parcelle-import-exemple.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\fieldconnectv2\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ccbw\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD33F10-5A00-452E-BA48-C4969D57EB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57FEF3D2-D67D-40D8-A095-14110406B553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="import-liste-exemple" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>DIVO001</t>
-  </si>
-  <si>
-    <t>FC-A-001</t>
-  </si>
-  <si>
     <t>codeproducteur</t>
   </si>
   <si>
@@ -62,20 +62,53 @@
     <t>longitude</t>
   </si>
   <si>
+    <t>codeparcelle</t>
+  </si>
+  <si>
+    <t>RA-DI-001-S1</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>CACAO</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>6.1005</t>
+  </si>
+  <si>
+    <t>-5.3553</t>
+  </si>
+  <si>
+    <t>RA-DI-001-P1</t>
+  </si>
+  <si>
+    <t>RA-DI-003-S1</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>5.8073</t>
+  </si>
+  <si>
+    <t>-5.1787</t>
+  </si>
+  <si>
+    <t>RA-DI-003-P1</t>
+  </si>
+  <si>
     <t>Verbale</t>
-  </si>
-  <si>
-    <t>GPS</t>
-  </si>
-  <si>
-    <t>CACAO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +239,19 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -552,9 +598,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -600,9 +647,16 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -618,26 +672,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H3" totalsRowShown="0">
-  <autoFilter ref="A1:H3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I3" totalsRowShown="0">
+  <autoFilter ref="A1:I3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="codeproducteur"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="anneecreation"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="typedeclaration"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="cultureparcelle"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="superficie" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="latitude"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="superficie" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="latitude" dataDxfId="0"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="longitude"/>
+    <tableColumn id="2" xr3:uid="{0979A0A8-DA2C-4E2B-AA09-4067F1A1A7F2}" name="codeparcelle"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -675,7 +730,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -781,7 +836,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -923,7 +978,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -931,100 +986,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2018</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>6.4879477350041004</v>
-      </c>
-      <c r="H2">
-        <v>-6.5917924325913004</v>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1999</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1">
-        <v>7.45</v>
-      </c>
-      <c r="G3">
-        <v>6.4881789999999997</v>
-      </c>
-      <c r="H3">
-        <v>-6.5921576000000002</v>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
